--- a/AAII_Financials/Quarterly/ANZGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANZGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>ANZGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,85 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9161400</v>
+        <v>15111900</v>
       </c>
       <c r="E8" s="3">
-        <v>6396900</v>
+        <v>9199000</v>
       </c>
       <c r="F8" s="3">
-        <v>6359400</v>
+        <v>6423100</v>
       </c>
       <c r="G8" s="3">
-        <v>6510300</v>
+        <v>6385400</v>
       </c>
       <c r="H8" s="3">
-        <v>7002500</v>
+        <v>6536900</v>
       </c>
       <c r="I8" s="3">
-        <v>9094200</v>
+        <v>7031200</v>
       </c>
       <c r="J8" s="3">
+        <v>9131500</v>
+      </c>
+      <c r="K8" s="3">
         <v>9955500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10524200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +771,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,8 +803,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,8 +819,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,8 +849,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +881,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -894,37 +913,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-187800</v>
+        <v>-169400</v>
       </c>
       <c r="E15" s="3">
-        <v>-193100</v>
+        <v>-188600</v>
       </c>
       <c r="F15" s="3">
-        <v>-200300</v>
+        <v>-193900</v>
       </c>
       <c r="G15" s="3">
-        <v>-220100</v>
+        <v>-201200</v>
       </c>
       <c r="H15" s="3">
-        <v>-340700</v>
+        <v>-221000</v>
       </c>
       <c r="I15" s="3">
-        <v>-224700</v>
+        <v>-342100</v>
       </c>
       <c r="J15" s="3">
+        <v>-225600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-235300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-222100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +958,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4072600</v>
+        <v>9575500</v>
       </c>
       <c r="E17" s="3">
-        <v>1530900</v>
+        <v>4089300</v>
       </c>
       <c r="F17" s="3">
-        <v>1580900</v>
+        <v>1537100</v>
       </c>
       <c r="G17" s="3">
-        <v>1582900</v>
+        <v>1587400</v>
       </c>
       <c r="H17" s="3">
-        <v>3204700</v>
+        <v>1589400</v>
       </c>
       <c r="I17" s="3">
-        <v>5438100</v>
+        <v>3217800</v>
       </c>
       <c r="J17" s="3">
+        <v>5460300</v>
+      </c>
+      <c r="K17" s="3">
         <v>5581100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5972500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5088800</v>
+        <v>5536400</v>
       </c>
       <c r="E18" s="3">
-        <v>4866100</v>
+        <v>5109600</v>
       </c>
       <c r="F18" s="3">
-        <v>4778400</v>
+        <v>4886000</v>
       </c>
       <c r="G18" s="3">
-        <v>4927300</v>
+        <v>4798000</v>
       </c>
       <c r="H18" s="3">
-        <v>3797800</v>
+        <v>4947500</v>
       </c>
       <c r="I18" s="3">
-        <v>3656100</v>
+        <v>3813400</v>
       </c>
       <c r="J18" s="3">
+        <v>3671100</v>
+      </c>
+      <c r="K18" s="3">
         <v>4374400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4551700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,66 +1036,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1764800</v>
+        <v>-2209400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1548000</v>
+        <v>-1772000</v>
       </c>
       <c r="F20" s="3">
-        <v>-1773400</v>
+        <v>-1554300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2043600</v>
+        <v>-1780600</v>
       </c>
       <c r="H20" s="3">
-        <v>-1885400</v>
+        <v>-2051900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1933500</v>
+        <v>-1893100</v>
       </c>
       <c r="J20" s="3">
+        <v>-1941400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1485400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1562500</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3652800</v>
+        <v>3638700</v>
       </c>
       <c r="E21" s="3">
-        <v>3653500</v>
+        <v>3667800</v>
       </c>
       <c r="F21" s="3">
-        <v>3350400</v>
+        <v>3668500</v>
       </c>
       <c r="G21" s="3">
-        <v>3254800</v>
+        <v>3364100</v>
       </c>
       <c r="H21" s="3">
-        <v>2425100</v>
+        <v>3268100</v>
       </c>
       <c r="I21" s="3">
-        <v>2126600</v>
+        <v>2435100</v>
       </c>
       <c r="J21" s="3">
+        <v>2135300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3181000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3271300</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,66 +1130,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3324000</v>
+        <v>3327000</v>
       </c>
       <c r="E23" s="3">
-        <v>3318100</v>
+        <v>3337600</v>
       </c>
       <c r="F23" s="3">
-        <v>3005000</v>
+        <v>3331700</v>
       </c>
       <c r="G23" s="3">
-        <v>2883800</v>
+        <v>3017400</v>
       </c>
       <c r="H23" s="3">
-        <v>1912400</v>
+        <v>2895600</v>
       </c>
       <c r="I23" s="3">
-        <v>1722600</v>
+        <v>1920300</v>
       </c>
       <c r="J23" s="3">
+        <v>1729700</v>
+      </c>
+      <c r="K23" s="3">
         <v>2889100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2989200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>949000</v>
+        <v>956800</v>
       </c>
       <c r="E24" s="3">
-        <v>988500</v>
+        <v>952800</v>
       </c>
       <c r="F24" s="3">
-        <v>877100</v>
+        <v>992600</v>
       </c>
       <c r="G24" s="3">
-        <v>939100</v>
+        <v>880700</v>
       </c>
       <c r="H24" s="3">
-        <v>568100</v>
+        <v>942900</v>
       </c>
       <c r="I24" s="3">
-        <v>644500</v>
+        <v>570400</v>
       </c>
       <c r="J24" s="3">
+        <v>647100</v>
+      </c>
+      <c r="K24" s="3">
         <v>873200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>846200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1226,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2375000</v>
+        <v>2370200</v>
       </c>
       <c r="E26" s="3">
-        <v>2329600</v>
+        <v>2384800</v>
       </c>
       <c r="F26" s="3">
-        <v>2127900</v>
+        <v>2339100</v>
       </c>
       <c r="G26" s="3">
-        <v>1944700</v>
+        <v>2136600</v>
       </c>
       <c r="H26" s="3">
-        <v>1344400</v>
+        <v>1952700</v>
       </c>
       <c r="I26" s="3">
-        <v>1078100</v>
+        <v>1349900</v>
       </c>
       <c r="J26" s="3">
+        <v>1082500</v>
+      </c>
+      <c r="K26" s="3">
         <v>2015900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2143100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2374400</v>
+        <v>2360900</v>
       </c>
       <c r="E27" s="3">
-        <v>2329600</v>
+        <v>2384100</v>
       </c>
       <c r="F27" s="3">
-        <v>2127300</v>
+        <v>2339100</v>
       </c>
       <c r="G27" s="3">
-        <v>1944700</v>
+        <v>2136000</v>
       </c>
       <c r="H27" s="3">
-        <v>1344400</v>
+        <v>1952700</v>
       </c>
       <c r="I27" s="3">
-        <v>1077500</v>
+        <v>1349900</v>
       </c>
       <c r="J27" s="3">
+        <v>1081900</v>
+      </c>
+      <c r="K27" s="3">
         <v>2011900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2137100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,37 +1322,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-9200</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F29" s="3">
         <v>-3300</v>
       </c>
-      <c r="F29" s="3">
-        <v>-5900</v>
-      </c>
       <c r="G29" s="3">
-        <v>-5300</v>
+        <v>-6000</v>
       </c>
       <c r="H29" s="3">
         <v>-5300</v>
       </c>
       <c r="I29" s="3">
-        <v>-59300</v>
+        <v>-5300</v>
       </c>
       <c r="J29" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-179900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-46100</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1386,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1418,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1764800</v>
+        <v>2209400</v>
       </c>
       <c r="E32" s="3">
-        <v>1548000</v>
+        <v>1772000</v>
       </c>
       <c r="F32" s="3">
-        <v>1773400</v>
+        <v>1554300</v>
       </c>
       <c r="G32" s="3">
-        <v>2043600</v>
+        <v>1780600</v>
       </c>
       <c r="H32" s="3">
-        <v>1885400</v>
+        <v>2051900</v>
       </c>
       <c r="I32" s="3">
-        <v>1933500</v>
+        <v>1893100</v>
       </c>
       <c r="J32" s="3">
+        <v>1941400</v>
+      </c>
+      <c r="K32" s="3">
         <v>1485400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1562500</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2365200</v>
+        <v>2360900</v>
       </c>
       <c r="E33" s="3">
-        <v>2326300</v>
+        <v>2374800</v>
       </c>
       <c r="F33" s="3">
-        <v>2121300</v>
+        <v>2335800</v>
       </c>
       <c r="G33" s="3">
-        <v>1939400</v>
+        <v>2130000</v>
       </c>
       <c r="H33" s="3">
-        <v>1339100</v>
+        <v>1947400</v>
       </c>
       <c r="I33" s="3">
-        <v>1018200</v>
+        <v>1344600</v>
       </c>
       <c r="J33" s="3">
+        <v>1022300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1832000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2091000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1514,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2365200</v>
+        <v>2360900</v>
       </c>
       <c r="E35" s="3">
-        <v>2326300</v>
+        <v>2374800</v>
       </c>
       <c r="F35" s="3">
-        <v>2121300</v>
+        <v>2335800</v>
       </c>
       <c r="G35" s="3">
-        <v>1939400</v>
+        <v>2130000</v>
       </c>
       <c r="H35" s="3">
-        <v>1339100</v>
+        <v>1947400</v>
       </c>
       <c r="I35" s="3">
-        <v>1018200</v>
+        <v>1344600</v>
       </c>
       <c r="J35" s="3">
+        <v>1022300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1832000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2091000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1599,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,66 +1613,73 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>117823900</v>
+        <v>146730000</v>
       </c>
       <c r="E41" s="3">
-        <v>119172900</v>
+        <v>118306700</v>
       </c>
       <c r="F41" s="3">
-        <v>108617000</v>
+        <v>119661200</v>
       </c>
       <c r="G41" s="3">
-        <v>92445800</v>
+        <v>109062100</v>
       </c>
       <c r="H41" s="3">
-        <v>80054700</v>
+        <v>92824600</v>
       </c>
       <c r="I41" s="3">
-        <v>103546000</v>
+        <v>80382700</v>
       </c>
       <c r="J41" s="3">
+        <v>103970300</v>
+      </c>
+      <c r="K41" s="3">
         <v>61620500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70159800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>91015100</v>
+        <v>62510800</v>
       </c>
       <c r="E42" s="3">
-        <v>62891700</v>
+        <v>91388000</v>
       </c>
       <c r="F42" s="3">
-        <v>61016800</v>
+        <v>63149300</v>
       </c>
       <c r="G42" s="3">
-        <v>107453900</v>
+        <v>61266800</v>
       </c>
       <c r="H42" s="3">
-        <v>132163800</v>
+        <v>107894200</v>
       </c>
       <c r="I42" s="3">
-        <v>157835100</v>
+        <v>132705300</v>
       </c>
       <c r="J42" s="3">
+        <v>158481800</v>
+      </c>
+      <c r="K42" s="3">
         <v>117856900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>88366600</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1615,8 +1707,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1644,8 +1739,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1673,8 +1771,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1702,95 +1803,107 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1437300</v>
+        <v>1490800</v>
       </c>
       <c r="E47" s="3">
-        <v>1329900</v>
+        <v>1443200</v>
       </c>
       <c r="F47" s="3">
-        <v>1299500</v>
+        <v>1335300</v>
       </c>
       <c r="G47" s="3">
-        <v>1221800</v>
+        <v>1304900</v>
       </c>
       <c r="H47" s="3">
-        <v>1426100</v>
+        <v>1226800</v>
       </c>
       <c r="I47" s="3">
-        <v>1524300</v>
+        <v>1431900</v>
       </c>
       <c r="J47" s="3">
+        <v>1530500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1948700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1803700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2381000</v>
+        <v>3053700</v>
       </c>
       <c r="E48" s="3">
-        <v>1780600</v>
+        <v>2390700</v>
       </c>
       <c r="F48" s="3">
-        <v>1801700</v>
+        <v>1787900</v>
       </c>
       <c r="G48" s="3">
-        <v>1839900</v>
+        <v>1809100</v>
       </c>
       <c r="H48" s="3">
-        <v>1985600</v>
+        <v>1847500</v>
       </c>
       <c r="I48" s="3">
-        <v>2116000</v>
+        <v>1993700</v>
       </c>
       <c r="J48" s="3">
+        <v>2124700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1267900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1227700</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2554900</v>
+        <v>2671300</v>
       </c>
       <c r="E49" s="3">
-        <v>2680800</v>
+        <v>2565400</v>
       </c>
       <c r="F49" s="3">
-        <v>2717700</v>
+        <v>2691800</v>
       </c>
       <c r="G49" s="3">
-        <v>2651800</v>
+        <v>2728900</v>
       </c>
       <c r="H49" s="3">
-        <v>2885800</v>
+        <v>2662700</v>
       </c>
       <c r="I49" s="3">
-        <v>3266700</v>
+        <v>2897600</v>
       </c>
       <c r="J49" s="3">
+        <v>3280000</v>
+      </c>
+      <c r="K49" s="3">
         <v>3203400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3306200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +1931,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +1963,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2230100</v>
+        <v>1960000</v>
       </c>
       <c r="E52" s="3">
-        <v>1913100</v>
+        <v>2239200</v>
       </c>
       <c r="F52" s="3">
-        <v>1541400</v>
+        <v>1920900</v>
       </c>
       <c r="G52" s="3">
-        <v>1387200</v>
+        <v>1547700</v>
       </c>
       <c r="H52" s="3">
-        <v>1399700</v>
+        <v>1392900</v>
       </c>
       <c r="I52" s="3">
-        <v>1196700</v>
+        <v>1405500</v>
       </c>
       <c r="J52" s="3">
+        <v>1201600</v>
+      </c>
+      <c r="K52" s="3">
         <v>2100200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29454000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2027,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>715495400</v>
+        <v>735281000</v>
       </c>
       <c r="E54" s="3">
-        <v>670440900</v>
+        <v>718426900</v>
       </c>
       <c r="F54" s="3">
-        <v>645066800</v>
+        <v>673187800</v>
       </c>
       <c r="G54" s="3">
-        <v>671085400</v>
+        <v>647709700</v>
       </c>
       <c r="H54" s="3">
-        <v>686866500</v>
+        <v>673834900</v>
       </c>
       <c r="I54" s="3">
-        <v>757820300</v>
+        <v>689680600</v>
       </c>
       <c r="J54" s="3">
+        <v>760925200</v>
+      </c>
+      <c r="K54" s="3">
         <v>646569300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>645997900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2075,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,37 +2089,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6481300</v>
+        <v>8596100</v>
       </c>
       <c r="E57" s="3">
-        <v>6971600</v>
+        <v>6507800</v>
       </c>
       <c r="F57" s="3">
-        <v>5698400</v>
+        <v>7000100</v>
       </c>
       <c r="G57" s="3">
-        <v>5639700</v>
+        <v>5721700</v>
       </c>
       <c r="H57" s="3">
-        <v>6015400</v>
+        <v>5662800</v>
       </c>
       <c r="I57" s="3">
-        <v>6943200</v>
+        <v>6040000</v>
       </c>
       <c r="J57" s="3">
+        <v>6971700</v>
+      </c>
+      <c r="K57" s="3">
         <v>5250900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5035400</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2018,37 +2151,43 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>546300</v>
+        <v>229600</v>
       </c>
       <c r="E59" s="3">
-        <v>210900</v>
+        <v>548500</v>
       </c>
       <c r="F59" s="3">
-        <v>276100</v>
+        <v>211700</v>
       </c>
       <c r="G59" s="3">
-        <v>133800</v>
+        <v>277300</v>
       </c>
       <c r="H59" s="3">
-        <v>230000</v>
+        <v>134300</v>
       </c>
       <c r="I59" s="3">
-        <v>160800</v>
+        <v>230900</v>
       </c>
       <c r="J59" s="3">
+        <v>161500</v>
+      </c>
+      <c r="K59" s="3">
         <v>171300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>104800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2076,66 +2215,75 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>61770700</v>
+        <v>70244100</v>
       </c>
       <c r="E61" s="3">
-        <v>57481900</v>
+        <v>62023800</v>
       </c>
       <c r="F61" s="3">
-        <v>66594600</v>
+        <v>57717400</v>
       </c>
       <c r="G61" s="3">
-        <v>70923600</v>
+        <v>66867400</v>
       </c>
       <c r="H61" s="3">
-        <v>78861200</v>
+        <v>71214100</v>
       </c>
       <c r="I61" s="3">
-        <v>92423400</v>
+        <v>79184300</v>
       </c>
       <c r="J61" s="3">
+        <v>92802100</v>
+      </c>
+      <c r="K61" s="3">
         <v>85466400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>85467000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1650100</v>
+        <v>1565600</v>
       </c>
       <c r="E62" s="3">
-        <v>1930200</v>
+        <v>1656900</v>
       </c>
       <c r="F62" s="3">
-        <v>1901900</v>
+        <v>1938100</v>
       </c>
       <c r="G62" s="3">
-        <v>2036300</v>
+        <v>1909700</v>
       </c>
       <c r="H62" s="3">
-        <v>2145000</v>
+        <v>2044700</v>
       </c>
       <c r="I62" s="3">
-        <v>2307800</v>
+        <v>2153800</v>
       </c>
       <c r="J62" s="3">
+        <v>2317300</v>
+      </c>
+      <c r="K62" s="3">
         <v>3295000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>32638300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2311,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2343,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2375,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>672062700</v>
+        <v>689568200</v>
       </c>
       <c r="E66" s="3">
-        <v>629749600</v>
+        <v>674816200</v>
       </c>
       <c r="F66" s="3">
-        <v>603111500</v>
+        <v>632329800</v>
       </c>
       <c r="G66" s="3">
-        <v>629854400</v>
+        <v>605582500</v>
       </c>
       <c r="H66" s="3">
-        <v>646478300</v>
+        <v>632435000</v>
       </c>
       <c r="I66" s="3">
-        <v>717381500</v>
+        <v>649127000</v>
       </c>
       <c r="J66" s="3">
+        <v>720320700</v>
+      </c>
+      <c r="K66" s="3">
         <v>606513300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>606575900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2423,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2453,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2485,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2517,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2549,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26209700</v>
+        <v>27185900</v>
       </c>
       <c r="E72" s="3">
-        <v>25114500</v>
+        <v>26317100</v>
       </c>
       <c r="F72" s="3">
-        <v>24058100</v>
+        <v>25217400</v>
       </c>
       <c r="G72" s="3">
-        <v>23225800</v>
+        <v>24156700</v>
       </c>
       <c r="H72" s="3">
-        <v>21956600</v>
+        <v>23321000</v>
       </c>
       <c r="I72" s="3">
+        <v>22046500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>21249200</v>
+      </c>
+      <c r="K72" s="3">
+        <v>21569700</v>
+      </c>
+      <c r="L72" s="3">
         <v>21162500</v>
       </c>
-      <c r="J72" s="3">
-        <v>21569700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>21162500</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2613,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2645,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2677,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43432700</v>
+        <v>45712900</v>
       </c>
       <c r="E76" s="3">
-        <v>40691300</v>
+        <v>43610700</v>
       </c>
       <c r="F76" s="3">
-        <v>41955200</v>
+        <v>40858000</v>
       </c>
       <c r="G76" s="3">
-        <v>41231000</v>
+        <v>42127100</v>
       </c>
       <c r="H76" s="3">
-        <v>40388100</v>
+        <v>41399900</v>
       </c>
       <c r="I76" s="3">
-        <v>40438900</v>
+        <v>40553600</v>
       </c>
       <c r="J76" s="3">
+        <v>40604600</v>
+      </c>
+      <c r="K76" s="3">
         <v>40056000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>39422000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2741,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2365200</v>
+        <v>2360900</v>
       </c>
       <c r="E81" s="3">
-        <v>2326300</v>
+        <v>2374800</v>
       </c>
       <c r="F81" s="3">
-        <v>2121300</v>
+        <v>2335800</v>
       </c>
       <c r="G81" s="3">
-        <v>1939400</v>
+        <v>2130000</v>
       </c>
       <c r="H81" s="3">
-        <v>1339100</v>
+        <v>1947400</v>
       </c>
       <c r="I81" s="3">
-        <v>1018200</v>
+        <v>1344600</v>
       </c>
       <c r="J81" s="3">
+        <v>1022300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1832000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2091000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +2826,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>328800</v>
+        <v>311700</v>
       </c>
       <c r="E83" s="3">
-        <v>335400</v>
+        <v>330200</v>
       </c>
       <c r="F83" s="3">
-        <v>345300</v>
+        <v>336800</v>
       </c>
       <c r="G83" s="3">
-        <v>371000</v>
+        <v>346700</v>
       </c>
       <c r="H83" s="3">
-        <v>512700</v>
+        <v>372500</v>
       </c>
       <c r="I83" s="3">
-        <v>404000</v>
+        <v>514800</v>
       </c>
       <c r="J83" s="3">
+        <v>405600</v>
+      </c>
+      <c r="K83" s="3">
         <v>291900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>282100</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +2888,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +2920,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +2952,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +2984,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3016,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8214400</v>
+        <v>26108700</v>
       </c>
       <c r="E89" s="3">
-        <v>21510400</v>
+        <v>-8248100</v>
       </c>
       <c r="F89" s="3">
-        <v>9226700</v>
+        <v>21598500</v>
       </c>
       <c r="G89" s="3">
-        <v>19652000</v>
+        <v>9264500</v>
       </c>
       <c r="H89" s="3">
-        <v>-1557200</v>
+        <v>19732600</v>
       </c>
       <c r="I89" s="3">
-        <v>36012400</v>
+        <v>-1563600</v>
       </c>
       <c r="J89" s="3">
+        <v>36159900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-7995600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4997200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,16 +3064,17 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-117000</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-151000</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -2874,8 +3094,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3126,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3158,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1917700</v>
+        <v>-5611900</v>
       </c>
       <c r="E94" s="3">
-        <v>720300</v>
+        <v>-1925500</v>
       </c>
       <c r="F94" s="3">
-        <v>7348500</v>
+        <v>723200</v>
       </c>
       <c r="G94" s="3">
-        <v>-588500</v>
+        <v>7378600</v>
       </c>
       <c r="H94" s="3">
-        <v>-8534700</v>
+        <v>-590900</v>
       </c>
       <c r="I94" s="3">
-        <v>979300</v>
+        <v>-8569700</v>
       </c>
       <c r="J94" s="3">
+        <v>983300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1121600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>985900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3206,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1179600</v>
+        <v>-1309500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1314000</v>
+        <v>-1184400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1288300</v>
+        <v>-1319400</v>
       </c>
       <c r="G96" s="3">
-        <v>-579300</v>
+        <v>-1293600</v>
       </c>
       <c r="H96" s="3">
-        <v>-417100</v>
+        <v>-581600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1468300</v>
+        <v>-418900</v>
       </c>
       <c r="J96" s="3">
+        <v>-1474300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1468900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1477500</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3268,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3300,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3332,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6423300</v>
+        <v>6044600</v>
       </c>
       <c r="E100" s="3">
-        <v>-7968600</v>
+        <v>6449600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1211200</v>
+        <v>-8001300</v>
       </c>
       <c r="G100" s="3">
-        <v>-5162600</v>
+        <v>-1216200</v>
       </c>
       <c r="H100" s="3">
-        <v>369000</v>
+        <v>-5183800</v>
       </c>
       <c r="I100" s="3">
-        <v>-653700</v>
+        <v>370600</v>
       </c>
       <c r="J100" s="3">
+        <v>-656400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3652800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1833300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3760300</v>
+        <v>368600</v>
       </c>
       <c r="E101" s="3">
-        <v>-3194800</v>
+        <v>3775700</v>
       </c>
       <c r="F101" s="3">
-        <v>2297300</v>
+        <v>-3207900</v>
       </c>
       <c r="G101" s="3">
-        <v>-3003100</v>
+        <v>2306700</v>
       </c>
       <c r="H101" s="3">
-        <v>-5544800</v>
+        <v>-3015400</v>
       </c>
       <c r="I101" s="3">
-        <v>4172100</v>
+        <v>-5567500</v>
       </c>
       <c r="J101" s="3">
+        <v>4189200</v>
+      </c>
+      <c r="K101" s="3">
         <v>1847800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>902800</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>51400</v>
+        <v>26910000</v>
       </c>
       <c r="E102" s="3">
-        <v>11067200</v>
+        <v>51600</v>
       </c>
       <c r="F102" s="3">
-        <v>17661200</v>
+        <v>11112600</v>
       </c>
       <c r="G102" s="3">
-        <v>10897900</v>
+        <v>17733600</v>
       </c>
       <c r="H102" s="3">
-        <v>-23177000</v>
+        <v>10942500</v>
       </c>
       <c r="I102" s="3">
-        <v>40510000</v>
+        <v>-23272000</v>
       </c>
       <c r="J102" s="3">
+        <v>40676000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8331100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6128000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANZGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANZGY_QTR_FIN.xlsx
@@ -716,25 +716,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15111900</v>
+        <v>14805900</v>
       </c>
       <c r="E8" s="3">
-        <v>9199000</v>
+        <v>9012700</v>
       </c>
       <c r="F8" s="3">
-        <v>6423100</v>
+        <v>6293000</v>
       </c>
       <c r="G8" s="3">
-        <v>6385400</v>
+        <v>6256100</v>
       </c>
       <c r="H8" s="3">
-        <v>6536900</v>
+        <v>6404600</v>
       </c>
       <c r="I8" s="3">
-        <v>7031200</v>
+        <v>6888800</v>
       </c>
       <c r="J8" s="3">
-        <v>9131500</v>
+        <v>8946500</v>
       </c>
       <c r="K8" s="3">
         <v>9955500</v>
@@ -922,25 +922,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-169400</v>
+        <v>-166000</v>
       </c>
       <c r="E15" s="3">
-        <v>-188600</v>
+        <v>-184800</v>
       </c>
       <c r="F15" s="3">
-        <v>-193900</v>
+        <v>-190000</v>
       </c>
       <c r="G15" s="3">
-        <v>-201200</v>
+        <v>-197100</v>
       </c>
       <c r="H15" s="3">
-        <v>-221000</v>
+        <v>-216500</v>
       </c>
       <c r="I15" s="3">
-        <v>-342100</v>
+        <v>-335200</v>
       </c>
       <c r="J15" s="3">
-        <v>-225600</v>
+        <v>-221100</v>
       </c>
       <c r="K15" s="3">
         <v>-235300</v>
@@ -965,25 +965,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9575500</v>
+        <v>9381500</v>
       </c>
       <c r="E17" s="3">
-        <v>4089300</v>
+        <v>4006500</v>
       </c>
       <c r="F17" s="3">
-        <v>1537100</v>
+        <v>1506000</v>
       </c>
       <c r="G17" s="3">
-        <v>1587400</v>
+        <v>1555300</v>
       </c>
       <c r="H17" s="3">
-        <v>1589400</v>
+        <v>1557200</v>
       </c>
       <c r="I17" s="3">
-        <v>3217800</v>
+        <v>3152700</v>
       </c>
       <c r="J17" s="3">
-        <v>5460300</v>
+        <v>5349800</v>
       </c>
       <c r="K17" s="3">
         <v>5581100</v>
@@ -997,25 +997,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5536400</v>
+        <v>5424300</v>
       </c>
       <c r="E18" s="3">
-        <v>5109600</v>
+        <v>5006200</v>
       </c>
       <c r="F18" s="3">
-        <v>4886000</v>
+        <v>4787000</v>
       </c>
       <c r="G18" s="3">
-        <v>4798000</v>
+        <v>4700800</v>
       </c>
       <c r="H18" s="3">
-        <v>4947500</v>
+        <v>4847300</v>
       </c>
       <c r="I18" s="3">
-        <v>3813400</v>
+        <v>3736200</v>
       </c>
       <c r="J18" s="3">
-        <v>3671100</v>
+        <v>3596800</v>
       </c>
       <c r="K18" s="3">
         <v>4374400</v>
@@ -1043,25 +1043,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2209400</v>
+        <v>-2164700</v>
       </c>
       <c r="E20" s="3">
-        <v>-1772000</v>
+        <v>-1736100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1554300</v>
+        <v>-1522900</v>
       </c>
       <c r="G20" s="3">
-        <v>-1780600</v>
+        <v>-1744600</v>
       </c>
       <c r="H20" s="3">
-        <v>-2051900</v>
+        <v>-2010400</v>
       </c>
       <c r="I20" s="3">
-        <v>-1893100</v>
+        <v>-1854800</v>
       </c>
       <c r="J20" s="3">
-        <v>-1941400</v>
+        <v>-1902100</v>
       </c>
       <c r="K20" s="3">
         <v>-1485400</v>
@@ -1075,25 +1075,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3638700</v>
+        <v>3565000</v>
       </c>
       <c r="E21" s="3">
-        <v>3667800</v>
+        <v>3593500</v>
       </c>
       <c r="F21" s="3">
-        <v>3668500</v>
+        <v>3594200</v>
       </c>
       <c r="G21" s="3">
-        <v>3364100</v>
+        <v>3296000</v>
       </c>
       <c r="H21" s="3">
-        <v>3268100</v>
+        <v>3202000</v>
       </c>
       <c r="I21" s="3">
-        <v>2435100</v>
+        <v>2385700</v>
       </c>
       <c r="J21" s="3">
-        <v>2135300</v>
+        <v>2092100</v>
       </c>
       <c r="K21" s="3">
         <v>3181000</v>
@@ -1139,25 +1139,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3327000</v>
+        <v>3259700</v>
       </c>
       <c r="E23" s="3">
-        <v>3337600</v>
+        <v>3270000</v>
       </c>
       <c r="F23" s="3">
-        <v>3331700</v>
+        <v>3264200</v>
       </c>
       <c r="G23" s="3">
-        <v>3017400</v>
+        <v>2956200</v>
       </c>
       <c r="H23" s="3">
-        <v>2895600</v>
+        <v>2837000</v>
       </c>
       <c r="I23" s="3">
-        <v>1920300</v>
+        <v>1881400</v>
       </c>
       <c r="J23" s="3">
-        <v>1729700</v>
+        <v>1694700</v>
       </c>
       <c r="K23" s="3">
         <v>2889100</v>
@@ -1171,25 +1171,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>956800</v>
+        <v>937400</v>
       </c>
       <c r="E24" s="3">
-        <v>952800</v>
+        <v>933600</v>
       </c>
       <c r="F24" s="3">
-        <v>992600</v>
+        <v>972500</v>
       </c>
       <c r="G24" s="3">
-        <v>880700</v>
+        <v>862900</v>
       </c>
       <c r="H24" s="3">
-        <v>942900</v>
+        <v>923800</v>
       </c>
       <c r="I24" s="3">
-        <v>570400</v>
+        <v>558800</v>
       </c>
       <c r="J24" s="3">
-        <v>647100</v>
+        <v>634000</v>
       </c>
       <c r="K24" s="3">
         <v>873200</v>
@@ -1235,25 +1235,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2370200</v>
+        <v>2322200</v>
       </c>
       <c r="E26" s="3">
-        <v>2384800</v>
+        <v>2336500</v>
       </c>
       <c r="F26" s="3">
-        <v>2339100</v>
+        <v>2291700</v>
       </c>
       <c r="G26" s="3">
-        <v>2136600</v>
+        <v>2093400</v>
       </c>
       <c r="H26" s="3">
-        <v>1952700</v>
+        <v>1913100</v>
       </c>
       <c r="I26" s="3">
-        <v>1349900</v>
+        <v>1322500</v>
       </c>
       <c r="J26" s="3">
-        <v>1082500</v>
+        <v>1060600</v>
       </c>
       <c r="K26" s="3">
         <v>2015900</v>
@@ -1267,25 +1267,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2360900</v>
+        <v>2313100</v>
       </c>
       <c r="E27" s="3">
-        <v>2384100</v>
+        <v>2335800</v>
       </c>
       <c r="F27" s="3">
-        <v>2339100</v>
+        <v>2291700</v>
       </c>
       <c r="G27" s="3">
-        <v>2136000</v>
+        <v>2092700</v>
       </c>
       <c r="H27" s="3">
-        <v>1952700</v>
+        <v>1913100</v>
       </c>
       <c r="I27" s="3">
-        <v>1349900</v>
+        <v>1322500</v>
       </c>
       <c r="J27" s="3">
-        <v>1081900</v>
+        <v>1060000</v>
       </c>
       <c r="K27" s="3">
         <v>2011900</v>
@@ -1334,22 +1334,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-9300</v>
+        <v>-9100</v>
       </c>
       <c r="F29" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="G29" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="H29" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="I29" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="J29" s="3">
-        <v>-59600</v>
+        <v>-58300</v>
       </c>
       <c r="K29" s="3">
         <v>-179900</v>
@@ -1427,25 +1427,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2209400</v>
+        <v>2164700</v>
       </c>
       <c r="E32" s="3">
-        <v>1772000</v>
+        <v>1736100</v>
       </c>
       <c r="F32" s="3">
-        <v>1554300</v>
+        <v>1522900</v>
       </c>
       <c r="G32" s="3">
-        <v>1780600</v>
+        <v>1744600</v>
       </c>
       <c r="H32" s="3">
-        <v>2051900</v>
+        <v>2010400</v>
       </c>
       <c r="I32" s="3">
-        <v>1893100</v>
+        <v>1854800</v>
       </c>
       <c r="J32" s="3">
-        <v>1941400</v>
+        <v>1902100</v>
       </c>
       <c r="K32" s="3">
         <v>1485400</v>
@@ -1459,25 +1459,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2360900</v>
+        <v>2313100</v>
       </c>
       <c r="E33" s="3">
-        <v>2374800</v>
+        <v>2326700</v>
       </c>
       <c r="F33" s="3">
-        <v>2335800</v>
+        <v>2288500</v>
       </c>
       <c r="G33" s="3">
-        <v>2130000</v>
+        <v>2086900</v>
       </c>
       <c r="H33" s="3">
-        <v>1947400</v>
+        <v>1907900</v>
       </c>
       <c r="I33" s="3">
-        <v>1344600</v>
+        <v>1317300</v>
       </c>
       <c r="J33" s="3">
-        <v>1022300</v>
+        <v>1001600</v>
       </c>
       <c r="K33" s="3">
         <v>1832000</v>
@@ -1523,25 +1523,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2360900</v>
+        <v>2313100</v>
       </c>
       <c r="E35" s="3">
-        <v>2374800</v>
+        <v>2326700</v>
       </c>
       <c r="F35" s="3">
-        <v>2335800</v>
+        <v>2288500</v>
       </c>
       <c r="G35" s="3">
-        <v>2130000</v>
+        <v>2086900</v>
       </c>
       <c r="H35" s="3">
-        <v>1947400</v>
+        <v>1907900</v>
       </c>
       <c r="I35" s="3">
-        <v>1344600</v>
+        <v>1317300</v>
       </c>
       <c r="J35" s="3">
-        <v>1022300</v>
+        <v>1001600</v>
       </c>
       <c r="K35" s="3">
         <v>1832000</v>
@@ -1620,25 +1620,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>146730000</v>
+        <v>143758600</v>
       </c>
       <c r="E41" s="3">
-        <v>118306700</v>
+        <v>115910900</v>
       </c>
       <c r="F41" s="3">
-        <v>119661200</v>
+        <v>117237900</v>
       </c>
       <c r="G41" s="3">
-        <v>109062100</v>
+        <v>106853500</v>
       </c>
       <c r="H41" s="3">
-        <v>92824600</v>
+        <v>90944800</v>
       </c>
       <c r="I41" s="3">
-        <v>80382700</v>
+        <v>78754800</v>
       </c>
       <c r="J41" s="3">
-        <v>103970300</v>
+        <v>101864800</v>
       </c>
       <c r="K41" s="3">
         <v>61620500</v>
@@ -1652,25 +1652,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>62510800</v>
+        <v>61244900</v>
       </c>
       <c r="E42" s="3">
-        <v>91388000</v>
+        <v>89537400</v>
       </c>
       <c r="F42" s="3">
-        <v>63149300</v>
+        <v>61870500</v>
       </c>
       <c r="G42" s="3">
-        <v>61266800</v>
+        <v>60026100</v>
       </c>
       <c r="H42" s="3">
-        <v>107894200</v>
+        <v>105709200</v>
       </c>
       <c r="I42" s="3">
-        <v>132705300</v>
+        <v>130017900</v>
       </c>
       <c r="J42" s="3">
-        <v>158481800</v>
+        <v>155272400</v>
       </c>
       <c r="K42" s="3">
         <v>117856900</v>
@@ -1812,25 +1812,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1490800</v>
+        <v>1460600</v>
       </c>
       <c r="E47" s="3">
-        <v>1443200</v>
+        <v>1413900</v>
       </c>
       <c r="F47" s="3">
-        <v>1335300</v>
+        <v>1308300</v>
       </c>
       <c r="G47" s="3">
-        <v>1304900</v>
+        <v>1278400</v>
       </c>
       <c r="H47" s="3">
-        <v>1226800</v>
+        <v>1201900</v>
       </c>
       <c r="I47" s="3">
-        <v>1431900</v>
+        <v>1402900</v>
       </c>
       <c r="J47" s="3">
-        <v>1530500</v>
+        <v>1499500</v>
       </c>
       <c r="K47" s="3">
         <v>1948700</v>
@@ -1844,25 +1844,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3053700</v>
+        <v>2991900</v>
       </c>
       <c r="E48" s="3">
-        <v>2390700</v>
+        <v>2342300</v>
       </c>
       <c r="F48" s="3">
-        <v>1787900</v>
+        <v>1751700</v>
       </c>
       <c r="G48" s="3">
-        <v>1809100</v>
+        <v>1772500</v>
       </c>
       <c r="H48" s="3">
-        <v>1847500</v>
+        <v>1810100</v>
       </c>
       <c r="I48" s="3">
-        <v>1993700</v>
+        <v>1953300</v>
       </c>
       <c r="J48" s="3">
-        <v>2124700</v>
+        <v>2081700</v>
       </c>
       <c r="K48" s="3">
         <v>1267900</v>
@@ -1876,25 +1876,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2671300</v>
+        <v>2617200</v>
       </c>
       <c r="E49" s="3">
-        <v>2565400</v>
+        <v>2513500</v>
       </c>
       <c r="F49" s="3">
-        <v>2691800</v>
+        <v>2637300</v>
       </c>
       <c r="G49" s="3">
-        <v>2728900</v>
+        <v>2673600</v>
       </c>
       <c r="H49" s="3">
-        <v>2662700</v>
+        <v>2608800</v>
       </c>
       <c r="I49" s="3">
-        <v>2897600</v>
+        <v>2838900</v>
       </c>
       <c r="J49" s="3">
-        <v>3280000</v>
+        <v>3213600</v>
       </c>
       <c r="K49" s="3">
         <v>3203400</v>
@@ -1972,25 +1972,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1960000</v>
+        <v>1920300</v>
       </c>
       <c r="E52" s="3">
-        <v>2239200</v>
+        <v>2193800</v>
       </c>
       <c r="F52" s="3">
-        <v>1920900</v>
+        <v>1882000</v>
       </c>
       <c r="G52" s="3">
-        <v>1547700</v>
+        <v>1516400</v>
       </c>
       <c r="H52" s="3">
-        <v>1392900</v>
+        <v>1364700</v>
       </c>
       <c r="I52" s="3">
-        <v>1405500</v>
+        <v>1377000</v>
       </c>
       <c r="J52" s="3">
-        <v>1201600</v>
+        <v>1177300</v>
       </c>
       <c r="K52" s="3">
         <v>2100200</v>
@@ -2036,25 +2036,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>735281000</v>
+        <v>720391000</v>
       </c>
       <c r="E54" s="3">
-        <v>718426900</v>
+        <v>703878100</v>
       </c>
       <c r="F54" s="3">
-        <v>673187800</v>
+        <v>659555100</v>
       </c>
       <c r="G54" s="3">
-        <v>647709700</v>
+        <v>634593000</v>
       </c>
       <c r="H54" s="3">
-        <v>673834900</v>
+        <v>660189200</v>
       </c>
       <c r="I54" s="3">
-        <v>689680600</v>
+        <v>675714000</v>
       </c>
       <c r="J54" s="3">
-        <v>760925200</v>
+        <v>745515800</v>
       </c>
       <c r="K54" s="3">
         <v>646569300</v>
@@ -2096,25 +2096,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8596100</v>
+        <v>8422100</v>
       </c>
       <c r="E57" s="3">
-        <v>6507800</v>
+        <v>6376000</v>
       </c>
       <c r="F57" s="3">
-        <v>7000100</v>
+        <v>6858400</v>
       </c>
       <c r="G57" s="3">
-        <v>5721700</v>
+        <v>5605900</v>
       </c>
       <c r="H57" s="3">
-        <v>5662800</v>
+        <v>5548200</v>
       </c>
       <c r="I57" s="3">
-        <v>6040000</v>
+        <v>5917700</v>
       </c>
       <c r="J57" s="3">
-        <v>6971700</v>
+        <v>6830500</v>
       </c>
       <c r="K57" s="3">
         <v>5250900</v>
@@ -2160,25 +2160,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>229600</v>
+        <v>225000</v>
       </c>
       <c r="E59" s="3">
-        <v>548500</v>
+        <v>537400</v>
       </c>
       <c r="F59" s="3">
-        <v>211700</v>
+        <v>207500</v>
       </c>
       <c r="G59" s="3">
-        <v>277300</v>
+        <v>271600</v>
       </c>
       <c r="H59" s="3">
-        <v>134300</v>
+        <v>131600</v>
       </c>
       <c r="I59" s="3">
-        <v>230900</v>
+        <v>226300</v>
       </c>
       <c r="J59" s="3">
-        <v>161500</v>
+        <v>158200</v>
       </c>
       <c r="K59" s="3">
         <v>171300</v>
@@ -2224,25 +2224,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>70244100</v>
+        <v>68821600</v>
       </c>
       <c r="E61" s="3">
-        <v>62023800</v>
+        <v>60767800</v>
       </c>
       <c r="F61" s="3">
-        <v>57717400</v>
+        <v>56548600</v>
       </c>
       <c r="G61" s="3">
-        <v>66867400</v>
+        <v>65513300</v>
       </c>
       <c r="H61" s="3">
-        <v>71214100</v>
+        <v>69772000</v>
       </c>
       <c r="I61" s="3">
-        <v>79184300</v>
+        <v>77580800</v>
       </c>
       <c r="J61" s="3">
-        <v>92802100</v>
+        <v>90922800</v>
       </c>
       <c r="K61" s="3">
         <v>85466400</v>
@@ -2256,25 +2256,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1565600</v>
+        <v>1533900</v>
       </c>
       <c r="E62" s="3">
-        <v>1656900</v>
+        <v>1623300</v>
       </c>
       <c r="F62" s="3">
-        <v>1938100</v>
+        <v>1898900</v>
       </c>
       <c r="G62" s="3">
-        <v>1909700</v>
+        <v>1871000</v>
       </c>
       <c r="H62" s="3">
-        <v>2044700</v>
+        <v>2003200</v>
       </c>
       <c r="I62" s="3">
-        <v>2153800</v>
+        <v>2110200</v>
       </c>
       <c r="J62" s="3">
-        <v>2317300</v>
+        <v>2270300</v>
       </c>
       <c r="K62" s="3">
         <v>3295000</v>
@@ -2384,25 +2384,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>689568200</v>
+        <v>675603800</v>
       </c>
       <c r="E66" s="3">
-        <v>674816200</v>
+        <v>661150600</v>
       </c>
       <c r="F66" s="3">
-        <v>632329800</v>
+        <v>619524600</v>
       </c>
       <c r="G66" s="3">
-        <v>605582500</v>
+        <v>593319000</v>
       </c>
       <c r="H66" s="3">
-        <v>632435000</v>
+        <v>619627600</v>
       </c>
       <c r="I66" s="3">
-        <v>649127000</v>
+        <v>635981700</v>
       </c>
       <c r="J66" s="3">
-        <v>720320700</v>
+        <v>705733500</v>
       </c>
       <c r="K66" s="3">
         <v>606513300</v>
@@ -2558,25 +2558,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27185900</v>
+        <v>26635400</v>
       </c>
       <c r="E72" s="3">
-        <v>26317100</v>
+        <v>25784200</v>
       </c>
       <c r="F72" s="3">
-        <v>25217400</v>
+        <v>24706700</v>
       </c>
       <c r="G72" s="3">
-        <v>24156700</v>
+        <v>23667500</v>
       </c>
       <c r="H72" s="3">
-        <v>23321000</v>
+        <v>22848700</v>
       </c>
       <c r="I72" s="3">
-        <v>22046500</v>
+        <v>21600100</v>
       </c>
       <c r="J72" s="3">
-        <v>21249200</v>
+        <v>20818900</v>
       </c>
       <c r="K72" s="3">
         <v>21569700</v>
@@ -2686,25 +2686,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45712900</v>
+        <v>44787200</v>
       </c>
       <c r="E76" s="3">
-        <v>43610700</v>
+        <v>42727500</v>
       </c>
       <c r="F76" s="3">
-        <v>40858000</v>
+        <v>40030600</v>
       </c>
       <c r="G76" s="3">
-        <v>42127100</v>
+        <v>41274000</v>
       </c>
       <c r="H76" s="3">
-        <v>41399900</v>
+        <v>40561500</v>
       </c>
       <c r="I76" s="3">
-        <v>40553600</v>
+        <v>39732400</v>
       </c>
       <c r="J76" s="3">
-        <v>40604600</v>
+        <v>39782300</v>
       </c>
       <c r="K76" s="3">
         <v>40056000</v>
@@ -2787,25 +2787,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2360900</v>
+        <v>2313100</v>
       </c>
       <c r="E81" s="3">
-        <v>2374800</v>
+        <v>2326700</v>
       </c>
       <c r="F81" s="3">
-        <v>2335800</v>
+        <v>2288500</v>
       </c>
       <c r="G81" s="3">
-        <v>2130000</v>
+        <v>2086900</v>
       </c>
       <c r="H81" s="3">
-        <v>1947400</v>
+        <v>1907900</v>
       </c>
       <c r="I81" s="3">
-        <v>1344600</v>
+        <v>1317300</v>
       </c>
       <c r="J81" s="3">
-        <v>1022300</v>
+        <v>1001600</v>
       </c>
       <c r="K81" s="3">
         <v>1832000</v>
@@ -2833,25 +2833,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>311700</v>
+        <v>305300</v>
       </c>
       <c r="E83" s="3">
-        <v>330200</v>
+        <v>323500</v>
       </c>
       <c r="F83" s="3">
-        <v>336800</v>
+        <v>330000</v>
       </c>
       <c r="G83" s="3">
-        <v>346700</v>
+        <v>339700</v>
       </c>
       <c r="H83" s="3">
-        <v>372500</v>
+        <v>365000</v>
       </c>
       <c r="I83" s="3">
-        <v>514800</v>
+        <v>504400</v>
       </c>
       <c r="J83" s="3">
-        <v>405600</v>
+        <v>397400</v>
       </c>
       <c r="K83" s="3">
         <v>291900</v>
@@ -3025,25 +3025,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26108700</v>
+        <v>25580000</v>
       </c>
       <c r="E89" s="3">
-        <v>-8248100</v>
+        <v>-8081100</v>
       </c>
       <c r="F89" s="3">
-        <v>21598500</v>
+        <v>21161200</v>
       </c>
       <c r="G89" s="3">
-        <v>9264500</v>
+        <v>9076800</v>
       </c>
       <c r="H89" s="3">
-        <v>19732600</v>
+        <v>19333000</v>
       </c>
       <c r="I89" s="3">
-        <v>-1563600</v>
+        <v>-1531900</v>
       </c>
       <c r="J89" s="3">
-        <v>36159900</v>
+        <v>35427700</v>
       </c>
       <c r="K89" s="3">
         <v>-7995600</v>
@@ -3167,25 +3167,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5611900</v>
+        <v>-5498200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1925500</v>
+        <v>-1886600</v>
       </c>
       <c r="F94" s="3">
-        <v>723200</v>
+        <v>708600</v>
       </c>
       <c r="G94" s="3">
-        <v>7378600</v>
+        <v>7229200</v>
       </c>
       <c r="H94" s="3">
-        <v>-590900</v>
+        <v>-578900</v>
       </c>
       <c r="I94" s="3">
-        <v>-8569700</v>
+        <v>-8396100</v>
       </c>
       <c r="J94" s="3">
-        <v>983300</v>
+        <v>963400</v>
       </c>
       <c r="K94" s="3">
         <v>-1121600</v>
@@ -3213,25 +3213,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1309500</v>
+        <v>-1283000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1184400</v>
+        <v>-1160500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1319400</v>
+        <v>-1292700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1293600</v>
+        <v>-1267400</v>
       </c>
       <c r="H96" s="3">
-        <v>-581600</v>
+        <v>-569900</v>
       </c>
       <c r="I96" s="3">
-        <v>-418900</v>
+        <v>-410400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1474300</v>
+        <v>-1444400</v>
       </c>
       <c r="K96" s="3">
         <v>-1468900</v>
@@ -3341,25 +3341,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6044600</v>
+        <v>5922200</v>
       </c>
       <c r="E100" s="3">
-        <v>6449600</v>
+        <v>6319000</v>
       </c>
       <c r="F100" s="3">
-        <v>-8001300</v>
+        <v>-7839200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1216200</v>
+        <v>-1191600</v>
       </c>
       <c r="H100" s="3">
-        <v>-5183800</v>
+        <v>-5078800</v>
       </c>
       <c r="I100" s="3">
-        <v>370600</v>
+        <v>363000</v>
       </c>
       <c r="J100" s="3">
-        <v>-656400</v>
+        <v>-643100</v>
       </c>
       <c r="K100" s="3">
         <v>-3652800</v>
@@ -3373,25 +3373,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>368600</v>
+        <v>361100</v>
       </c>
       <c r="E101" s="3">
-        <v>3775700</v>
+        <v>3699200</v>
       </c>
       <c r="F101" s="3">
-        <v>-3207900</v>
+        <v>-3143000</v>
       </c>
       <c r="G101" s="3">
-        <v>2306700</v>
+        <v>2260000</v>
       </c>
       <c r="H101" s="3">
-        <v>-3015400</v>
+        <v>-2954300</v>
       </c>
       <c r="I101" s="3">
-        <v>-5567500</v>
+        <v>-5454800</v>
       </c>
       <c r="J101" s="3">
-        <v>4189200</v>
+        <v>4104400</v>
       </c>
       <c r="K101" s="3">
         <v>1847800</v>
@@ -3405,25 +3405,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26910000</v>
+        <v>26365100</v>
       </c>
       <c r="E102" s="3">
-        <v>51600</v>
+        <v>50600</v>
       </c>
       <c r="F102" s="3">
-        <v>11112600</v>
+        <v>10887600</v>
       </c>
       <c r="G102" s="3">
-        <v>17733600</v>
+        <v>17374400</v>
       </c>
       <c r="H102" s="3">
-        <v>10942500</v>
+        <v>10720900</v>
       </c>
       <c r="I102" s="3">
-        <v>-23272000</v>
+        <v>-22800700</v>
       </c>
       <c r="J102" s="3">
-        <v>40676000</v>
+        <v>39852300</v>
       </c>
       <c r="K102" s="3">
         <v>-8331100</v>

--- a/AAII_Financials/Quarterly/ANZGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANZGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>ANZGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,91 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14805900</v>
+        <v>17510400</v>
       </c>
       <c r="E8" s="3">
-        <v>9012700</v>
+        <v>14776200</v>
       </c>
       <c r="F8" s="3">
-        <v>6293000</v>
+        <v>8994600</v>
       </c>
       <c r="G8" s="3">
-        <v>6256100</v>
+        <v>6280400</v>
       </c>
       <c r="H8" s="3">
-        <v>6404600</v>
+        <v>6243600</v>
       </c>
       <c r="I8" s="3">
-        <v>6888800</v>
+        <v>6391700</v>
       </c>
       <c r="J8" s="3">
+        <v>6875000</v>
+      </c>
+      <c r="K8" s="3">
         <v>8946500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9955500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10524200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,8 +780,11 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -806,8 +815,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -820,8 +832,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,8 +865,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -884,8 +900,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -916,40 +935,46 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-166000</v>
+        <v>-161100</v>
       </c>
       <c r="E15" s="3">
-        <v>-184800</v>
+        <v>-165600</v>
       </c>
       <c r="F15" s="3">
-        <v>-190000</v>
+        <v>-184400</v>
       </c>
       <c r="G15" s="3">
-        <v>-197100</v>
+        <v>-189600</v>
       </c>
       <c r="H15" s="3">
-        <v>-216500</v>
+        <v>-196700</v>
       </c>
       <c r="I15" s="3">
-        <v>-335200</v>
+        <v>-216100</v>
       </c>
       <c r="J15" s="3">
+        <v>-334500</v>
+      </c>
+      <c r="K15" s="3">
         <v>-221100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-235300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-222100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -959,72 +984,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9381500</v>
+        <v>12354500</v>
       </c>
       <c r="E17" s="3">
-        <v>4006500</v>
+        <v>9362700</v>
       </c>
       <c r="F17" s="3">
-        <v>1506000</v>
+        <v>3998500</v>
       </c>
       <c r="G17" s="3">
-        <v>1555300</v>
+        <v>1503000</v>
       </c>
       <c r="H17" s="3">
-        <v>1557200</v>
+        <v>1552200</v>
       </c>
       <c r="I17" s="3">
-        <v>3152700</v>
+        <v>1554100</v>
       </c>
       <c r="J17" s="3">
+        <v>3146400</v>
+      </c>
+      <c r="K17" s="3">
         <v>5349800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5581100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5972500</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5424300</v>
+        <v>5155900</v>
       </c>
       <c r="E18" s="3">
-        <v>5006200</v>
+        <v>5413400</v>
       </c>
       <c r="F18" s="3">
-        <v>4787000</v>
+        <v>4996100</v>
       </c>
       <c r="G18" s="3">
-        <v>4700800</v>
+        <v>4777400</v>
       </c>
       <c r="H18" s="3">
-        <v>4847300</v>
+        <v>4691400</v>
       </c>
       <c r="I18" s="3">
-        <v>3736200</v>
+        <v>4837600</v>
       </c>
       <c r="J18" s="3">
+        <v>3728700</v>
+      </c>
+      <c r="K18" s="3">
         <v>3596800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4374400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4551700</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1037,72 +1069,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2164700</v>
+        <v>-1890500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1736100</v>
+        <v>-2160300</v>
       </c>
       <c r="F20" s="3">
-        <v>-1522900</v>
+        <v>-1732700</v>
       </c>
       <c r="G20" s="3">
-        <v>-1744600</v>
+        <v>-1519800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2010400</v>
+        <v>-1741100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1854800</v>
+        <v>-2006300</v>
       </c>
       <c r="J20" s="3">
+        <v>-1851100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1902100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1485400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1562500</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3565000</v>
+        <v>3557900</v>
       </c>
       <c r="E21" s="3">
-        <v>3593500</v>
+        <v>3557900</v>
       </c>
       <c r="F21" s="3">
-        <v>3594200</v>
+        <v>3586300</v>
       </c>
       <c r="G21" s="3">
-        <v>3296000</v>
+        <v>3587000</v>
       </c>
       <c r="H21" s="3">
-        <v>3202000</v>
+        <v>3289300</v>
       </c>
       <c r="I21" s="3">
-        <v>2385700</v>
+        <v>3195500</v>
       </c>
       <c r="J21" s="3">
+        <v>2381000</v>
+      </c>
+      <c r="K21" s="3">
         <v>2092100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3181000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3271300</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1133,72 +1172,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3259700</v>
+        <v>3265400</v>
       </c>
       <c r="E23" s="3">
-        <v>3270000</v>
+        <v>3253100</v>
       </c>
       <c r="F23" s="3">
-        <v>3264200</v>
+        <v>3263500</v>
       </c>
       <c r="G23" s="3">
-        <v>2956200</v>
+        <v>3257600</v>
       </c>
       <c r="H23" s="3">
-        <v>2837000</v>
+        <v>2950300</v>
       </c>
       <c r="I23" s="3">
-        <v>1881400</v>
+        <v>2831300</v>
       </c>
       <c r="J23" s="3">
+        <v>1877600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1694700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2889100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2989200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>937400</v>
+        <v>972400</v>
       </c>
       <c r="E24" s="3">
-        <v>933600</v>
+        <v>935600</v>
       </c>
       <c r="F24" s="3">
-        <v>972500</v>
+        <v>931700</v>
       </c>
       <c r="G24" s="3">
-        <v>862900</v>
+        <v>970500</v>
       </c>
       <c r="H24" s="3">
-        <v>923800</v>
+        <v>861200</v>
       </c>
       <c r="I24" s="3">
-        <v>558800</v>
+        <v>922000</v>
       </c>
       <c r="J24" s="3">
+        <v>557700</v>
+      </c>
+      <c r="K24" s="3">
         <v>634000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>873200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>846200</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1229,72 +1277,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2322200</v>
+        <v>2293000</v>
       </c>
       <c r="E26" s="3">
-        <v>2336500</v>
+        <v>2317600</v>
       </c>
       <c r="F26" s="3">
-        <v>2291700</v>
+        <v>2331800</v>
       </c>
       <c r="G26" s="3">
-        <v>2093400</v>
+        <v>2287100</v>
       </c>
       <c r="H26" s="3">
-        <v>1913100</v>
+        <v>2089200</v>
       </c>
       <c r="I26" s="3">
-        <v>1322500</v>
+        <v>1909300</v>
       </c>
       <c r="J26" s="3">
+        <v>1319900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1060600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2015900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2143100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2313100</v>
+        <v>2283900</v>
       </c>
       <c r="E27" s="3">
-        <v>2335800</v>
+        <v>2308500</v>
       </c>
       <c r="F27" s="3">
-        <v>2291700</v>
+        <v>2331100</v>
       </c>
       <c r="G27" s="3">
-        <v>2092700</v>
+        <v>2287100</v>
       </c>
       <c r="H27" s="3">
-        <v>1913100</v>
+        <v>2088500</v>
       </c>
       <c r="I27" s="3">
-        <v>1322500</v>
+        <v>1909300</v>
       </c>
       <c r="J27" s="3">
+        <v>1319900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1060000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2011900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2137100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1325,8 +1382,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1334,31 +1394,34 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-9100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-3200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-5200</v>
       </c>
       <c r="I29" s="3">
         <v>-5200</v>
       </c>
       <c r="J29" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K29" s="3">
         <v>-58300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-179900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-46100</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1389,8 +1452,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1421,72 +1487,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2164700</v>
+        <v>1890500</v>
       </c>
       <c r="E32" s="3">
-        <v>1736100</v>
+        <v>2160300</v>
       </c>
       <c r="F32" s="3">
-        <v>1522900</v>
+        <v>1732700</v>
       </c>
       <c r="G32" s="3">
-        <v>1744600</v>
+        <v>1519800</v>
       </c>
       <c r="H32" s="3">
-        <v>2010400</v>
+        <v>1741100</v>
       </c>
       <c r="I32" s="3">
-        <v>1854800</v>
+        <v>2006300</v>
       </c>
       <c r="J32" s="3">
+        <v>1851100</v>
+      </c>
+      <c r="K32" s="3">
         <v>1902100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1485400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1562500</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2313100</v>
+        <v>2283900</v>
       </c>
       <c r="E33" s="3">
-        <v>2326700</v>
+        <v>2308500</v>
       </c>
       <c r="F33" s="3">
-        <v>2288500</v>
+        <v>2322100</v>
       </c>
       <c r="G33" s="3">
-        <v>2086900</v>
+        <v>2283900</v>
       </c>
       <c r="H33" s="3">
-        <v>1907900</v>
+        <v>2082700</v>
       </c>
       <c r="I33" s="3">
-        <v>1317300</v>
+        <v>1904100</v>
       </c>
       <c r="J33" s="3">
+        <v>1314700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1001600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1832000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2091000</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1517,77 +1592,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2313100</v>
+        <v>2283900</v>
       </c>
       <c r="E35" s="3">
-        <v>2326700</v>
+        <v>2308500</v>
       </c>
       <c r="F35" s="3">
-        <v>2288500</v>
+        <v>2322100</v>
       </c>
       <c r="G35" s="3">
-        <v>2086900</v>
+        <v>2283900</v>
       </c>
       <c r="H35" s="3">
-        <v>1907900</v>
+        <v>2082700</v>
       </c>
       <c r="I35" s="3">
-        <v>1317300</v>
+        <v>1904100</v>
       </c>
       <c r="J35" s="3">
+        <v>1314700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1001600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1832000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2091000</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1600,8 +1684,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1614,72 +1699,79 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>143758600</v>
+        <v>118854500</v>
       </c>
       <c r="E41" s="3">
-        <v>115910900</v>
+        <v>143470300</v>
       </c>
       <c r="F41" s="3">
-        <v>117237900</v>
+        <v>115678400</v>
       </c>
       <c r="G41" s="3">
-        <v>106853500</v>
+        <v>117002800</v>
       </c>
       <c r="H41" s="3">
-        <v>90944800</v>
+        <v>106639200</v>
       </c>
       <c r="I41" s="3">
-        <v>78754800</v>
+        <v>90762500</v>
       </c>
       <c r="J41" s="3">
+        <v>78596900</v>
+      </c>
+      <c r="K41" s="3">
         <v>101864800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>61620500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70159800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>61244900</v>
+        <v>68561300</v>
       </c>
       <c r="E42" s="3">
-        <v>89537400</v>
+        <v>61122100</v>
       </c>
       <c r="F42" s="3">
-        <v>61870500</v>
+        <v>89357800</v>
       </c>
       <c r="G42" s="3">
-        <v>60026100</v>
+        <v>61746400</v>
       </c>
       <c r="H42" s="3">
-        <v>105709200</v>
+        <v>59905700</v>
       </c>
       <c r="I42" s="3">
-        <v>130017900</v>
+        <v>105497200</v>
       </c>
       <c r="J42" s="3">
+        <v>129757100</v>
+      </c>
+      <c r="K42" s="3">
         <v>155272400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>117856900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>88366600</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1710,8 +1802,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1742,8 +1837,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1774,8 +1872,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1806,104 +1907,116 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1460600</v>
+        <v>1519800</v>
       </c>
       <c r="E47" s="3">
-        <v>1413900</v>
+        <v>1457700</v>
       </c>
       <c r="F47" s="3">
-        <v>1308300</v>
+        <v>1411100</v>
       </c>
       <c r="G47" s="3">
-        <v>1278400</v>
+        <v>1305600</v>
       </c>
       <c r="H47" s="3">
-        <v>1201900</v>
+        <v>1275900</v>
       </c>
       <c r="I47" s="3">
-        <v>1402900</v>
+        <v>1199500</v>
       </c>
       <c r="J47" s="3">
+        <v>1400100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1499500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1948700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1803700</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2991900</v>
+        <v>1328300</v>
       </c>
       <c r="E48" s="3">
-        <v>2342300</v>
+        <v>1481000</v>
       </c>
       <c r="F48" s="3">
-        <v>1751700</v>
+        <v>1572900</v>
       </c>
       <c r="G48" s="3">
-        <v>1772500</v>
+        <v>1748200</v>
       </c>
       <c r="H48" s="3">
-        <v>1810100</v>
+        <v>1768900</v>
       </c>
       <c r="I48" s="3">
-        <v>1953300</v>
+        <v>1806400</v>
       </c>
       <c r="J48" s="3">
+        <v>1949400</v>
+      </c>
+      <c r="K48" s="3">
         <v>2081700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1267900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1227700</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2617200</v>
+        <v>2625500</v>
       </c>
       <c r="E49" s="3">
-        <v>2513500</v>
+        <v>2611900</v>
       </c>
       <c r="F49" s="3">
-        <v>2637300</v>
+        <v>2508400</v>
       </c>
       <c r="G49" s="3">
-        <v>2673600</v>
+        <v>2632000</v>
       </c>
       <c r="H49" s="3">
-        <v>2608800</v>
+        <v>2668200</v>
       </c>
       <c r="I49" s="3">
-        <v>2838900</v>
+        <v>2603500</v>
       </c>
       <c r="J49" s="3">
+        <v>2833200</v>
+      </c>
+      <c r="K49" s="3">
         <v>3213600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3203400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3306200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1934,8 +2047,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1966,40 +2082,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1920300</v>
+        <v>2158400</v>
       </c>
       <c r="E52" s="3">
-        <v>2193800</v>
+        <v>1916400</v>
       </c>
       <c r="F52" s="3">
-        <v>1882000</v>
+        <v>2189400</v>
       </c>
       <c r="G52" s="3">
-        <v>1516400</v>
+        <v>1878200</v>
       </c>
       <c r="H52" s="3">
-        <v>1364700</v>
+        <v>1513300</v>
       </c>
       <c r="I52" s="3">
-        <v>1377000</v>
+        <v>1361900</v>
       </c>
       <c r="J52" s="3">
+        <v>1374200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1177300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29454000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2030,40 +2152,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>720391000</v>
+        <v>715336100</v>
       </c>
       <c r="E54" s="3">
-        <v>703878100</v>
+        <v>718946400</v>
       </c>
       <c r="F54" s="3">
-        <v>659555100</v>
+        <v>702466700</v>
       </c>
       <c r="G54" s="3">
-        <v>634593000</v>
+        <v>658232600</v>
       </c>
       <c r="H54" s="3">
-        <v>660189200</v>
+        <v>633320500</v>
       </c>
       <c r="I54" s="3">
-        <v>675714000</v>
+        <v>658865300</v>
       </c>
       <c r="J54" s="3">
+        <v>674359000</v>
+      </c>
+      <c r="K54" s="3">
         <v>745515800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>646569300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>645997900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2076,8 +2204,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2090,40 +2219,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8422100</v>
+        <v>9734100</v>
       </c>
       <c r="E57" s="3">
-        <v>6376000</v>
+        <v>8405200</v>
       </c>
       <c r="F57" s="3">
-        <v>6858400</v>
+        <v>6363200</v>
       </c>
       <c r="G57" s="3">
-        <v>5605900</v>
+        <v>6844600</v>
       </c>
       <c r="H57" s="3">
-        <v>5548200</v>
+        <v>5594600</v>
       </c>
       <c r="I57" s="3">
-        <v>5917700</v>
+        <v>5537000</v>
       </c>
       <c r="J57" s="3">
+        <v>5905800</v>
+      </c>
+      <c r="K57" s="3">
         <v>6830500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5250900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5035400</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2154,40 +2287,46 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>225000</v>
+        <v>197300</v>
       </c>
       <c r="E59" s="3">
-        <v>537400</v>
+        <v>224500</v>
       </c>
       <c r="F59" s="3">
-        <v>207500</v>
+        <v>536400</v>
       </c>
       <c r="G59" s="3">
-        <v>271600</v>
+        <v>207000</v>
       </c>
       <c r="H59" s="3">
-        <v>131600</v>
+        <v>271100</v>
       </c>
       <c r="I59" s="3">
-        <v>226300</v>
+        <v>131300</v>
       </c>
       <c r="J59" s="3">
+        <v>225800</v>
+      </c>
+      <c r="K59" s="3">
         <v>158200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>171300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>104800</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2218,72 +2357,81 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>68821600</v>
+        <v>75061100</v>
       </c>
       <c r="E61" s="3">
-        <v>60767800</v>
+        <v>68683600</v>
       </c>
       <c r="F61" s="3">
-        <v>56548600</v>
+        <v>60645900</v>
       </c>
       <c r="G61" s="3">
-        <v>65513300</v>
+        <v>56435200</v>
       </c>
       <c r="H61" s="3">
-        <v>69772000</v>
+        <v>65381900</v>
       </c>
       <c r="I61" s="3">
-        <v>77580800</v>
+        <v>69632100</v>
       </c>
       <c r="J61" s="3">
+        <v>77425200</v>
+      </c>
+      <c r="K61" s="3">
         <v>90922800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>85466400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>85467000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1533900</v>
+        <v>1532100</v>
       </c>
       <c r="E62" s="3">
-        <v>1623300</v>
+        <v>1530800</v>
       </c>
       <c r="F62" s="3">
-        <v>1898900</v>
+        <v>1620100</v>
       </c>
       <c r="G62" s="3">
-        <v>1871000</v>
+        <v>1895100</v>
       </c>
       <c r="H62" s="3">
-        <v>2003200</v>
+        <v>1867200</v>
       </c>
       <c r="I62" s="3">
-        <v>2110200</v>
+        <v>1999200</v>
       </c>
       <c r="J62" s="3">
+        <v>2106000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2270300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3295000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>32638300</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2314,8 +2462,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2346,8 +2497,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2378,40 +2532,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>675603800</v>
+        <v>670354100</v>
       </c>
       <c r="E66" s="3">
-        <v>661150600</v>
+        <v>674249100</v>
       </c>
       <c r="F66" s="3">
-        <v>619524600</v>
+        <v>659824800</v>
       </c>
       <c r="G66" s="3">
-        <v>593319000</v>
+        <v>618282300</v>
       </c>
       <c r="H66" s="3">
-        <v>619627600</v>
+        <v>592129200</v>
       </c>
       <c r="I66" s="3">
-        <v>635981700</v>
+        <v>618385100</v>
       </c>
       <c r="J66" s="3">
+        <v>634706400</v>
+      </c>
+      <c r="K66" s="3">
         <v>705733500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>606513300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>606575900</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2424,8 +2584,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2456,8 +2617,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2488,8 +2652,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2520,8 +2687,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2552,40 +2722,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26635400</v>
+        <v>27328000</v>
       </c>
       <c r="E72" s="3">
-        <v>25784200</v>
+        <v>26582000</v>
       </c>
       <c r="F72" s="3">
-        <v>24706700</v>
+        <v>25732500</v>
       </c>
       <c r="G72" s="3">
-        <v>23667500</v>
+        <v>24657200</v>
       </c>
       <c r="H72" s="3">
-        <v>22848700</v>
+        <v>23620000</v>
       </c>
       <c r="I72" s="3">
-        <v>21600100</v>
+        <v>22802900</v>
       </c>
       <c r="J72" s="3">
+        <v>21556700</v>
+      </c>
+      <c r="K72" s="3">
         <v>20818900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21569700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21162500</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2616,8 +2792,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2648,8 +2827,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2680,40 +2862,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44787200</v>
+        <v>44982000</v>
       </c>
       <c r="E76" s="3">
-        <v>42727500</v>
+        <v>44697300</v>
       </c>
       <c r="F76" s="3">
-        <v>40030600</v>
+        <v>42641800</v>
       </c>
       <c r="G76" s="3">
-        <v>41274000</v>
+        <v>39950300</v>
       </c>
       <c r="H76" s="3">
-        <v>40561500</v>
+        <v>41191300</v>
       </c>
       <c r="I76" s="3">
-        <v>39732400</v>
+        <v>40480200</v>
       </c>
       <c r="J76" s="3">
+        <v>39652700</v>
+      </c>
+      <c r="K76" s="3">
         <v>39782300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40056000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>39422000</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2744,77 +2932,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2313100</v>
+        <v>2283900</v>
       </c>
       <c r="E81" s="3">
-        <v>2326700</v>
+        <v>2308500</v>
       </c>
       <c r="F81" s="3">
-        <v>2288500</v>
+        <v>2322100</v>
       </c>
       <c r="G81" s="3">
-        <v>2086900</v>
+        <v>2283900</v>
       </c>
       <c r="H81" s="3">
-        <v>1907900</v>
+        <v>2082700</v>
       </c>
       <c r="I81" s="3">
-        <v>1317300</v>
+        <v>1904100</v>
       </c>
       <c r="J81" s="3">
+        <v>1314700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1001600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1832000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2091000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2827,40 +3024,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>305300</v>
+        <v>292400</v>
       </c>
       <c r="E83" s="3">
-        <v>323500</v>
+        <v>304700</v>
       </c>
       <c r="F83" s="3">
-        <v>330000</v>
+        <v>322900</v>
       </c>
       <c r="G83" s="3">
-        <v>339700</v>
+        <v>329300</v>
       </c>
       <c r="H83" s="3">
-        <v>365000</v>
+        <v>339000</v>
       </c>
       <c r="I83" s="3">
-        <v>504400</v>
+        <v>364300</v>
       </c>
       <c r="J83" s="3">
+        <v>503400</v>
+      </c>
+      <c r="K83" s="3">
         <v>397400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>291900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>282100</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2891,8 +3092,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2923,8 +3127,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2955,8 +3162,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2987,8 +3197,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3019,40 +3232,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25580000</v>
+        <v>-21330900</v>
       </c>
       <c r="E89" s="3">
-        <v>-8081100</v>
+        <v>25528700</v>
       </c>
       <c r="F89" s="3">
-        <v>21161200</v>
+        <v>-8064900</v>
       </c>
       <c r="G89" s="3">
-        <v>9076800</v>
+        <v>21118700</v>
       </c>
       <c r="H89" s="3">
-        <v>19333000</v>
+        <v>9058600</v>
       </c>
       <c r="I89" s="3">
-        <v>-1531900</v>
+        <v>19294200</v>
       </c>
       <c r="J89" s="3">
+        <v>-1528900</v>
+      </c>
+      <c r="K89" s="3">
         <v>35427700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7995600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4997200</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3065,8 +3284,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3074,7 +3294,7 @@
         <v>-117000</v>
       </c>
       <c r="E91" s="3">
-        <v>-151000</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3097,8 +3317,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3129,8 +3352,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3161,40 +3387,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5498200</v>
+        <v>-1426600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1886600</v>
+        <v>-5487200</v>
       </c>
       <c r="F94" s="3">
-        <v>708600</v>
+        <v>-1882800</v>
       </c>
       <c r="G94" s="3">
-        <v>7229200</v>
+        <v>707200</v>
       </c>
       <c r="H94" s="3">
-        <v>-578900</v>
+        <v>7214700</v>
       </c>
       <c r="I94" s="3">
-        <v>-8396100</v>
+        <v>-577800</v>
       </c>
       <c r="J94" s="3">
+        <v>-8379300</v>
+      </c>
+      <c r="K94" s="3">
         <v>963400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1121600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>985900</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3207,40 +3439,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1283000</v>
+        <v>-1553400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1160500</v>
+        <v>-1280400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1292700</v>
+        <v>-1158100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1267400</v>
+        <v>-1290100</v>
       </c>
       <c r="H96" s="3">
-        <v>-569900</v>
+        <v>-1264900</v>
       </c>
       <c r="I96" s="3">
-        <v>-410400</v>
+        <v>-568700</v>
       </c>
       <c r="J96" s="3">
+        <v>-409600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1444400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1468900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1477500</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3271,8 +3507,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3303,8 +3542,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3335,100 +3577,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5922200</v>
+        <v>-3073300</v>
       </c>
       <c r="E100" s="3">
-        <v>6319000</v>
+        <v>5910300</v>
       </c>
       <c r="F100" s="3">
-        <v>-7839200</v>
+        <v>6306300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1191600</v>
+        <v>-7823500</v>
       </c>
       <c r="H100" s="3">
-        <v>-5078800</v>
+        <v>-1189200</v>
       </c>
       <c r="I100" s="3">
-        <v>363000</v>
+        <v>-5068600</v>
       </c>
       <c r="J100" s="3">
+        <v>362300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-643100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3652800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1833300</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>361100</v>
+        <v>-467100</v>
       </c>
       <c r="E101" s="3">
-        <v>3699200</v>
+        <v>360400</v>
       </c>
       <c r="F101" s="3">
-        <v>-3143000</v>
+        <v>3691800</v>
       </c>
       <c r="G101" s="3">
-        <v>2260000</v>
+        <v>-3136700</v>
       </c>
       <c r="H101" s="3">
-        <v>-2954300</v>
+        <v>2255400</v>
       </c>
       <c r="I101" s="3">
-        <v>-5454800</v>
+        <v>-2948400</v>
       </c>
       <c r="J101" s="3">
+        <v>-5443900</v>
+      </c>
+      <c r="K101" s="3">
         <v>4104400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1847800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>902800</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26365100</v>
+        <v>-26298000</v>
       </c>
       <c r="E102" s="3">
-        <v>50600</v>
+        <v>26312200</v>
       </c>
       <c r="F102" s="3">
-        <v>10887600</v>
+        <v>50500</v>
       </c>
       <c r="G102" s="3">
-        <v>17374400</v>
+        <v>10865700</v>
       </c>
       <c r="H102" s="3">
-        <v>10720900</v>
+        <v>17339600</v>
       </c>
       <c r="I102" s="3">
-        <v>-22800700</v>
+        <v>10699400</v>
       </c>
       <c r="J102" s="3">
+        <v>-22755000</v>
+      </c>
+      <c r="K102" s="3">
         <v>39852300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8331100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6128000</v>
       </c>
     </row>
